--- a/Income/AON_inc.xlsx
+++ b/Income/AON_inc.xlsx
@@ -885,19 +885,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>-236000000.0</v>
+        <v>-235000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>-210000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>48000000.0</v>
+        <v>47000000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>51000000.0</v>
+        <v>50000000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>-26000000.0</v>
+        <v>-27000000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>-44000000.0</v>
@@ -1393,19 +1393,19 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>2158000000.0</v>
+        <v>2159000000.0</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>2017000000.0</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>1865000000.0</v>
+        <v>1864000000.0</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>1813000000.0</v>
+        <v>1812000000.0</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>1690000000.0</v>
+        <v>1689000000.0</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>1574000000.0</v>
@@ -1775,10 +1775,8 @@
           <t>Gross Margin</t>
         </is>
       </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B14" s="0" t="n">
+        <v>0.4633</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0.4663</v>
@@ -1904,10 +1902,8 @@
           <t>EBIT Margin</t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B15" s="0" t="n">
+        <v>0.2631</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0.2512</v>
@@ -2033,10 +2029,8 @@
           <t>EBT margin</t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B16" s="0" t="n">
+        <v>0.233</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0.2227</v>
@@ -2162,10 +2156,8 @@
           <t>Net Profit Margin</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B17" s="0" t="n">
+        <v>0.1855</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0.1779</v>
@@ -2291,10 +2283,8 @@
           <t>Free Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B18" s="0" t="n">
+        <v>0.2823</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0.2672</v>
@@ -2420,10 +2410,8 @@
           <t>EBITDA</t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B19" s="0" t="n">
+        <v>3349000000.0</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>3194000000.0</v>
@@ -2677,19 +2665,19 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>9.2503</v>
+        <v>9.1672</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>8.45</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>7.77</v>
+        <v>7.8531</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>7.52</v>
+        <v>7.6031</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>6.96</v>
+        <v>7.0431</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>6.37</v>
@@ -2809,7 +2797,7 @@
         </is>
       </c>
       <c r="C22" s="0" t="n">
-        <v>0.0</v>
+        <v>-0.0043</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>0.0085</v>
@@ -3099,7 +3087,7 @@
         </is>
       </c>
       <c r="C24" s="0" t="n">
-        <v>0.0</v>
+        <v>-0.0043</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>0.0085</v>
@@ -3257,19 +3245,19 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>9.2883</v>
+        <v>9.2064</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>8.49</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>7.81</v>
+        <v>7.8919</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>7.57</v>
+        <v>7.6519</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>7.01</v>
+        <v>7.0919</v>
       </c>
       <c r="G25" s="0" t="n">
         <v>6.42</v>
@@ -3384,19 +3372,19 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>2158000000.0</v>
+        <v>2159000000.0</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>2017000000.0</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>1865000000.0</v>
+        <v>1864000000.0</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>1813000000.0</v>
+        <v>1812000000.0</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>1690000000.0</v>
+        <v>1689000000.0</v>
       </c>
       <c r="G26" s="0" t="n">
         <v>1574000000.0</v>
@@ -3515,10 +3503,8 @@
           <t/>
         </is>
       </c>
-      <c r="C27" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="C27" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>0.0</v>
@@ -3808,10 +3794,8 @@
           <t>EBITDA Margin</t>
         </is>
       </c>
-      <c r="B29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B29" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>0.2886</v>
@@ -3937,10 +3921,8 @@
           <t>Operating Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B30" s="0" t="n">
+        <v>0.292</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>0.28</v>
